--- a/biology/Zoologie/Yvo_Antoni/Yvo_Antoni.xlsx
+++ b/biology/Zoologie/Yvo_Antoni/Yvo_Antoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yvo Antoni, né le 2 août 1979 à Cologne[1], est un dresseur canin et acrobate allemand.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yvo Antoni, né le 2 août 1979 à Cologne, est un dresseur canin et acrobate allemand.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Carrière artistique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoni vient d'une famille d'artistes. Sa mère, Birgit Antoni, est peintre, et son père, Yurgen Oster, est professeur de tai-chi-chuan après avoir été artiste. Ses grands-parents étaient chanteurs d'opéra.
-Antoni fréquente le Lycée Humboldt de Cologne. Il le quitte à 16 ans et occupe de petits emplois : préposé de station-service, cracheur de feu, vendeur de fruits. Plus tard, il termine ses études à la State Ballet School Berlin, et participe à des spectacles[évasif] depuis 2000[réf. nécessaire][2].
-Depuis 2003, se tient en collaboration avec Marina Yakubova sur scène et a été utilisé dans des galas internationaux, des spectacles de cirque et autres spectacles[incompréhensible][3], comme des spectacles de variétés et festivals. Il est maintenant marié à Yakubova[4],[5].  
+Antoni fréquente le Lycée Humboldt de Cologne. Il le quitte à 16 ans et occupe de petits emplois : préposé de station-service, cracheur de feu, vendeur de fruits. Plus tard, il termine ses études à la State Ballet School Berlin, et participe à des spectacles[évasif] depuis 2000[réf. nécessaire].
+Depuis 2003, se tient en collaboration avec Marina Yakubova sur scène et a été utilisé dans des galas internationaux, des spectacles de cirque et autres spectacles[incompréhensible], comme des spectacles de variétés et festivals. Il est maintenant marié à Yakubova,.  
 Les deux artistes vivant à Cologne ont participé au spectacle de talent[Quoi ?] "Das Supertalent 2009". Yakubova ne pouvait pas atteindre les spectacles en direct avec son spectacle de hula-hoop[pas clair][pourquoi ?], Antoni avait plus de succès avec sa chienne PrimaDonna, avec qui il a joué des tours artistiques[style à revoir]. Il a gagné le 20 décembre 2009 comme le meilleur des douze candidats avec 13,5% de tous les appels à la finale, 100 000 euros et le titre "Supertalent 2009"[style à revoir]. Il était juste 0,1% devant la deuxième chanteuse d'opéra Vanessa Calcagno[pas clair].
-La chienne d'Antoni est un Jack Russell Terrier[6]. Elle est née le 13 mai 2006 et est issue d'un élevage[7].
+La chienne d'Antoni est un Jack Russell Terrier. Elle est née le 13 mai 2006 et est issue d'un élevage.
 </t>
         </is>
       </c>
